--- a/src/test/resources/serialization.xlsx
+++ b/src/test/resources/serialization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13920" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="14100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>user</t>
   </si>
@@ -35,22 +35,19 @@
     <t>class2</t>
   </si>
   <si>
-    <t>jennifer</t>
+    <t xml:space="preserve">a </t>
   </si>
   <si>
-    <t>Beatty</t>
+    <t>fefeef</t>
   </si>
   <si>
-    <t>anny</t>
+    <t>fd</t>
   </si>
   <si>
-    <t>Lanny</t>
+    <t>show table</t>
   </si>
   <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>Jane</t>
+    <t>join select * from ivn where phone = "13487078970"</t>
   </si>
 </sst>
 </file>
@@ -58,12 +55,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,6 +69,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -79,18 +83,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -102,62 +121,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,22 +145,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -196,7 +153,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,8 +182,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,181 +229,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,6 +446,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,173 +520,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1030,44 +1037,42 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="3" max="3" width="44.1964285714286" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="3" spans="3:3">
+      <c r="C3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/serialization.xlsx
+++ b/src/test/resources/serialization.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14100" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="14100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>user</t>
   </si>
@@ -38,7 +39,7 @@
     <t xml:space="preserve">a </t>
   </si>
   <si>
-    <t>fefeef</t>
+    <t>190445823276</t>
   </si>
   <si>
     <t>fd</t>
@@ -48,6 +49,48 @@
   </si>
   <si>
     <t>join select * from ivn where phone = "13487078970"</t>
+  </si>
+  <si>
+    <t>呼出号码</t>
+  </si>
+  <si>
+    <t>客户姓名</t>
+  </si>
+  <si>
+    <t>省</t>
+  </si>
+  <si>
+    <t>市</t>
+  </si>
+  <si>
+    <t>区/县</t>
+  </si>
+  <si>
+    <t>街道/乡镇</t>
+  </si>
+  <si>
+    <t>居委/村</t>
+  </si>
+  <si>
+    <t>小区</t>
+  </si>
+  <si>
+    <t>刘少逸</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>闵行</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>19121074262</t>
+  </si>
+  <si>
+    <t>刘兵</t>
   </si>
 </sst>
 </file>
@@ -55,12 +98,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -69,31 +112,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -105,11 +145,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,16 +176,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,77 +261,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,197 +277,212 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -432,35 +495,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,17 +525,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,6 +551,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -520,161 +568,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1039,13 +1114,15 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="3" max="3" width="44.1964285714286" customWidth="1"/>
+    <col min="1" max="1" width="19.4910714285714" customWidth="1"/>
+    <col min="2" max="2" width="20.2321428571429" customWidth="1"/>
+    <col min="3" max="3" width="48.2053571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1060,19 +1137,114 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="16.8" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:8">
+      <c r="A2" s="2">
+        <v>15618503685</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/serialization.xlsx
+++ b/src/test/resources/serialization.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14100" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>user</t>
   </si>
@@ -50,60 +49,18 @@
   <si>
     <t>join select * from ivn where phone = "13487078970"</t>
   </si>
-  <si>
-    <t>呼出号码</t>
-  </si>
-  <si>
-    <t>客户姓名</t>
-  </si>
-  <si>
-    <t>省</t>
-  </si>
-  <si>
-    <t>市</t>
-  </si>
-  <si>
-    <t>区/县</t>
-  </si>
-  <si>
-    <t>街道/乡镇</t>
-  </si>
-  <si>
-    <t>居委/村</t>
-  </si>
-  <si>
-    <t>小区</t>
-  </si>
-  <si>
-    <t>刘少逸</t>
-  </si>
-  <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>闵行</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>19121074262</t>
-  </si>
-  <si>
-    <t>刘兵</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,56 +70,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,19 +86,34 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -199,9 +122,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,44 +138,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -262,7 +147,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,31 +222,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,156 +402,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -471,17 +416,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,30 +464,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -545,26 +475,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,168 +493,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1073,7 +994,7 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1137,114 +1058,19 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="7"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.8" spans="1:8">
-      <c r="A1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:8">
-      <c r="A2" s="2">
-        <v>15618503685</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
